--- a/da.xlsx
+++ b/da.xlsx
@@ -14,12 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Profit</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>FUR-BO-10001567</t>
+  </si>
+  <si>
+    <t>FUR-BO-10003433</t>
+  </si>
+  <si>
+    <t>FUR-BO-10002206</t>
+  </si>
+  <si>
+    <t>FUR-BO-10000468</t>
+  </si>
+  <si>
+    <t>FUR-BO-10002853</t>
+  </si>
+  <si>
+    <t>FUR-BO-10004409</t>
+  </si>
+  <si>
+    <t>FUR-BO-10004709</t>
+  </si>
+  <si>
+    <t>FUR-BO-10002202</t>
+  </si>
+  <si>
+    <t>FUR-BO-10001619</t>
   </si>
 </sst>
 </file>
@@ -78,7 +105,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Profit/Time</c:v>
+            <c:v>Chart</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -98,43 +125,72 @@
             <c:backward val="0.1"/>
           </c:trendline>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2014</c:v>
+                  <c:v>FUR-BO-10001567</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015</c:v>
+                  <c:v>FUR-BO-10003433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2016</c:v>
+                  <c:v>FUR-BO-10002206</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2017</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>FUR-BO-10000468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FUR-BO-10002853</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FUR-BO-10004409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FUR-BO-10004709</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FUR-BO-10002202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FUR-BO-10001619</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>22593.41609999999</c:v>
+                  <c:v>90.88200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25099.5338</c:v>
+                  <c:v>107.3973333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35061.22919999999</c:v>
+                  <c:v>119.833</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39736.62169999999</c:v>
+                  <c:v>120.6403333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135.201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>143.143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158.5430888888889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200.0134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>212.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -150,7 +206,6 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
@@ -506,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -521,39 +576,79 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2014</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>22593.41609999999</v>
+        <v>90.88200000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2015</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>25099.5338</v>
+        <v>107.3973333333333</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>2016</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>35061.22919999999</v>
+        <v>119.833</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
-        <v>2017</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>39736.62169999999</v>
+        <v>120.6403333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>135.201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>143.143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>158.5430888888889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>200.0134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>212.45</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B5">
+  <conditionalFormatting sqref="B2:B10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/da.xlsx
+++ b/da.xlsx
@@ -14,39 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Products</t>
+    <t>Riverside Palais Royal Lawyers Bookcase, Royale Cherry Finish</t>
   </si>
   <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>FUR-BO-10001567</t>
-  </si>
-  <si>
-    <t>FUR-BO-10003433</t>
-  </si>
-  <si>
-    <t>FUR-BO-10002206</t>
-  </si>
-  <si>
-    <t>FUR-BO-10000468</t>
-  </si>
-  <si>
-    <t>FUR-BO-10002853</t>
-  </si>
-  <si>
-    <t>FUR-BO-10004409</t>
-  </si>
-  <si>
-    <t>FUR-BO-10004709</t>
-  </si>
-  <si>
-    <t>FUR-BO-10002202</t>
-  </si>
-  <si>
-    <t>FUR-BO-10001619</t>
+    <t>Total Vanzari: Bookcases</t>
   </si>
 </sst>
 </file>
@@ -96,140 +69,67 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="10"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Chart</c:v>
+            <c:v>PieChart Pondere</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:name/>
-            <c:spPr>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:forward val="0.1"/>
-            <c:backward val="0.1"/>
-          </c:trendline>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$1:$B$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>FUR-BO-10001567</c:v>
+                  <c:v>Riverside Palais Royal Lawyers Bookcase, Royale Cherry Finish</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FUR-BO-10003433</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FUR-BO-10002206</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FUR-BO-10000468</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FUR-BO-10002853</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FUR-BO-10004409</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FUR-BO-10004709</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FUR-BO-10002202</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FUR-BO-10001619</c:v>
+                  <c:v>Total Vanzari: Bookcases</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>Sheet1!$A$2:$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>90.88200000000001</c:v>
+                  <c:v>13.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.3973333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>119.833</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120.6403333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>135.201</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>143.143</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158.5430888888889</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>200.0134</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>212.45</c:v>
+                  <c:v>86.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="50010001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50010002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -245,13 +145,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -561,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,90 +476,14 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2">
+        <v>13.59</v>
       </c>
       <c r="B2">
-        <v>90.88200000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>107.3973333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>119.833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>120.6403333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>135.201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>143.143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>158.5430888888889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>200.0134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>212.45</v>
+        <v>86.41</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B10">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/da.xlsx
+++ b/da.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Riverside Palais Royal Lawyers Bookcase, Royale Cherry Finish</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>Total Vanzari: Bookcases</t>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -69,67 +72,160 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="10"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>PieChart Pondere</c:v>
-          </c:tx>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
-          <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$B$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Riverside Palais Royal Lawyers Bookcase, Royale Cherry Finish</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Total Vanzari: Bookcases</c:v>
+                  <c:v>Sum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$B$2</c:f>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13.59</c:v>
+                  <c:v>484247.4981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.41</c:v>
+                  <c:v>470532.509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>609205.598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>733215.2552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22638.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6354.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17499.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13999.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -145,13 +241,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -461,29 +557,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>13.59</v>
+        <v>2014</v>
       </c>
       <c r="B2">
-        <v>86.41</v>
+        <v>484247.4981</v>
+      </c>
+      <c r="C2">
+        <v>22638.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3">
+        <v>470532.509</v>
+      </c>
+      <c r="C3">
+        <v>6354.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2016</v>
+      </c>
+      <c r="B4">
+        <v>609205.598</v>
+      </c>
+      <c r="C4">
+        <v>17499.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>2017</v>
+      </c>
+      <c r="B5">
+        <v>733215.2552</v>
+      </c>
+      <c r="C5">
+        <v>13999.96</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
